--- a/作品表格模版.xlsx
+++ b/作品表格模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22248" windowHeight="9228"/>
+    <workbookView windowWidth="17280" windowHeight="9228"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>作品 id</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>作品2  的描述....</t>
+  </si>
+  <si>
+    <t>《Live a good life》</t>
+  </si>
+  <si>
+    <t>如果你拥有一个幸福美满的家庭，那你就是全世界最幸福的人。系列一引入家庭人员：宝宝、父亲、母亲、奶奶中的代表元素以表现现代家庭生活节奏快的特点。 系列二引入老虎这一吉祥元素，改进传统老虎形象，结合中国风元素和时尚流行趋势进行设计，提高现年轻消费者接受度。改用Q版虎头鞋、虎掌、虎头元素，加上吉祥元素，赋予整体设计富贵、福气的寓意。</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/ba/37d18aff57440d5e035f29b8682a954a415192.jpg</t>
+  </si>
+  <si>
+    <t>http://r.xiumi.us/board/v5/44pDk/146970345?in_preview=true&amp;preview_for=normal&amp;stage_ticket=gnvaVHLum7aNvFJqai9GqHfUcLkJpJbzFpoZ4vBqYOreYWJUtTHtr4QKbQA1</t>
   </si>
 </sst>
 </file>
@@ -54,12 +66,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +88,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -83,6 +103,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -105,61 +133,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,7 +158,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,22 +189,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +201,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -227,25 +247,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,145 +397,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,8 +446,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -437,7 +459,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,21 +475,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,13 +509,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,156 +537,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,13 +1014,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="17.7" customWidth="1"/>
     <col min="3" max="4" width="28.2" customWidth="1"/>
@@ -1031,7 +1057,7 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1048,7 +1074,7 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1065,7 +1091,7 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1082,7 +1108,7 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1099,8 +1125,25 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="151.8" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1110,6 +1153,7 @@
     <hyperlink ref="E4" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
     <hyperlink ref="E5" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
     <hyperlink ref="E6" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
+    <hyperlink ref="E7" r:id="rId2" display="http://r.xiumi.us/board/v5/44pDk/146970345?in_preview=true&amp;preview_for=normal&amp;stage_ticket=gnvaVHLum7aNvFJqai9GqHfUcLkJpJbzFpoZ4vBqYOreYWJUtTHtr4QKbQA1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/作品表格模版.xlsx
+++ b/作品表格模版.xlsx
@@ -66,12 +66,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,48 +80,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,60 +149,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -204,7 +158,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +193,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -225,8 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,19 +239,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,151 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,13 +436,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,21 +456,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,17 +475,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +507,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -537,162 +529,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,7 +1000,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1057,7 +1040,7 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1074,7 +1057,7 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1091,7 +1074,7 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1108,7 +1091,7 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1125,24 +1108,24 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="151.8" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
     </row>

--- a/作品表格模版.xlsx
+++ b/作品表格模版.xlsx
@@ -58,7 +58,7 @@
     <t>https://img.vim-cn.com/ba/37d18aff57440d5e035f29b8682a954a415192.jpg</t>
   </si>
   <si>
-    <t>http://r.xiumi.us/board/v5/44pDk/146970345?in_preview=true&amp;preview_for=normal&amp;stage_ticket=gnvaVHLum7aNvFJqai9GqHfUcLkJpJbzFpoZ4vBqYOreYWJUtTHtr4QKbQA1</t>
+    <t>http://r.xiumi.us/board/v5/44pDk/146970345?in_preview=true&amp;preview_for=normal&amp;stage_ticket=u3Rp8J9Z5v8ykFMfltxcG2FslzLd9aqub4sIKHrk2H9qkYSkPHZ0HkiInVmv</t>
   </si>
 </sst>
 </file>
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,6 +81,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -88,30 +111,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,6 +125,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -133,16 +141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +165,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -172,13 +196,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -193,22 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -216,9 +217,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,181 +233,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,8 +430,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,39 +492,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,17 +518,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -529,148 +529,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,8 +999,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1136,7 +1136,6 @@
     <hyperlink ref="E4" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
     <hyperlink ref="E5" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
     <hyperlink ref="E6" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
-    <hyperlink ref="E7" r:id="rId2" display="http://r.xiumi.us/board/v5/44pDk/146970345?in_preview=true&amp;preview_for=normal&amp;stage_ticket=gnvaVHLum7aNvFJqai9GqHfUcLkJpJbzFpoZ4vBqYOreYWJUtTHtr4QKbQA1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/作品表格模版.xlsx
+++ b/作品表格模版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>作品 id</t>
   </si>
@@ -31,24 +31,6 @@
     <t>作品链接</t>
   </si>
   <si>
-    <t>作品1</t>
-  </si>
-  <si>
-    <t>作品1  的描述....</t>
-  </si>
-  <si>
-    <t>https://avatars2.githubusercontent.com/u/8016514</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd</t>
-  </si>
-  <si>
-    <t>作品2</t>
-  </si>
-  <si>
-    <t>作品2  的描述....</t>
-  </si>
-  <si>
     <t>《Live a good life》</t>
   </si>
   <si>
@@ -58,7 +40,7 @@
     <t>https://img.vim-cn.com/ba/37d18aff57440d5e035f29b8682a954a415192.jpg</t>
   </si>
   <si>
-    <t>http://r.xiumi.us/board/v5/44pDk/146970345?in_preview=true&amp;preview_for=normal&amp;stage_ticket=u3Rp8J9Z5v8ykFMfltxcG2FslzLd9aqub4sIKHrk2H9qkYSkPHZ0HkiInVmv</t>
+    <t>https://vote.ilingyue.cn/media/1.pdf</t>
   </si>
 </sst>
 </file>
@@ -997,13 +979,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="17.7" customWidth="1"/>
     <col min="3" max="4" width="28.2" customWidth="1"/>
@@ -1044,98 +1026,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
-    <hyperlink ref="E3" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
-    <hyperlink ref="E4" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
-    <hyperlink ref="E5" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
-    <hyperlink ref="E6" r:id="rId1" display="https://mp.weixin.qq.com/s?__biz=MzA4MzA4MDc5Mg==&amp;mid=2652329047&amp;idx=1&amp;sn=e5794096bb356ae2602a164b0c470094&amp;chksm=84181760b36f9e76818c2ab47a2841e86c8caed1aaa8168cd1710b7e00f6227db60cfc8b1e20&amp;mpshare=1&amp;scene=1&amp;srcid=#rd"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://vote.ilingyue.cn/media/1.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/作品表格模版.xlsx
+++ b/作品表格模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="9228"/>
+    <workbookView windowWidth="21696" windowHeight="9228"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>作品 id</t>
   </si>
@@ -31,6 +31,39 @@
     <t>作品链接</t>
   </si>
   <si>
+    <t>印花与织花围巾的设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/99/c8875124aee1ce184b2cb73f9066f4dba3082b.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/1.pdf</t>
+  </si>
+  <si>
+    <t>植物染紫色系抱枕设计</t>
+  </si>
+  <si>
+    <t>植物染产品的目标客群在于18岁-35岁年轻女性，她们是一群个性化、有独立想法的女性，愿意为自己认可的价值观而买单，经过市场调研，她们对于面料再造工艺也有着内心期许，再加上植物染本身染色质朴朴素的特质，笔者选取了面料再造工艺与植物染进行了产品上的结合，主要分为三种手法来呈现，分别是大面积拼布、小面积贴布和经纬交织；在调研中显示，抱枕在消费者购买过植物染产品中排第三，在家用纺织品中排第一，故采用抱枕为载体进行设计与制作。</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/ef/044c30ccbf5c4543c23c40045c609b1b1a0b25.png 译</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/3.pdf</t>
+  </si>
+  <si>
+    <t>再生海洋塑料面料的开发与应用</t>
+  </si>
+  <si>
+    <t>用再生海洋塑料面料结合环保的主题进行印花设计以及服装的设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/97/2a4e0cfe16d7ca5fea0c8d15dbbf71250cc273.jpg 译</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/6.pdf</t>
+  </si>
+  <si>
     <t>《Live a good life》</t>
   </si>
   <si>
@@ -40,7 +73,172 @@
     <t>https://img.vim-cn.com/ba/37d18aff57440d5e035f29b8682a954a415192.jpg</t>
   </si>
   <si>
-    <t>https://vote.ilingyue.cn/media/1.pdf</t>
+    <t>https://vote.ilingyue.cn/media/8.pdf</t>
+  </si>
+  <si>
+    <t>走出传统，未来穿着</t>
+  </si>
+  <si>
+    <t>走出固有的审美风格，走出传统，用穿着释放个性</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/9.pdf</t>
+  </si>
+  <si>
+    <t>生生谓之易</t>
+  </si>
+  <si>
+    <t>功能性运动毛针织面料设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/60/1a1197e8490b1e2bf4b144df953320390c13f2.jpg 译</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/10.pdf</t>
+  </si>
+  <si>
+    <t>家居服设计</t>
+  </si>
+  <si>
+    <t>本课题采取问卷调研和品牌调研两种方式，了解家居服的面料、款式、颜色、价格以及市场状况。基于调研结果，以大学生群体为对象，从面料、款式、图案设计对家居服进行设计。</t>
+  </si>
+  <si>
+    <t>以保护濒危动物为主题的数码印花丝巾设计</t>
+  </si>
+  <si>
+    <t>在面料的设计上，采用含有20%木棉的棉/木棉混纺的36支纱线进行双面针织面料的设计；款式的设计分别为开襟式、套头式两种款式；图案设计采用两种方案，其一是通过剪纸透视艺术寻找灵感来源，进行手绘透视图案；其二是自画像图案设计，借助照片设计自己的简笔画图案，最后将图案通过手绘实现在面料上。最终得到两款款式新颖、面料舒适、图案个性的家居服。</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/78/8061b43188e521e0ae7a051986751199b9cfc7.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/12.pdf</t>
+  </si>
+  <si>
+    <t>缂毛</t>
+  </si>
+  <si>
+    <t>以通经断纬的传统工艺织造的装饰品</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/97/1828a49290ce70f9cc285e57b4ec0713e64bf2.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/13.pdf</t>
+  </si>
+  <si>
+    <t>手工编织配件饰品的设计与开发</t>
+  </si>
+  <si>
+    <t>以夏日风情为核心概念展开设计，通过手工编织，再结合手工染色，完成整个包袋的设计与制作。</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/15.pdf</t>
+  </si>
+  <si>
+    <t>时尚宋锦产品创新设计-顾芳华</t>
+  </si>
+  <si>
+    <t>在保留宋锦传统魅力的基础上，通过图案花纹和表现手法的创新得到两个系列的创新设计。</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/fa/07343d4208bab4b03f713a62508f593e502686.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/16.pdf</t>
+  </si>
+  <si>
+    <t>《幻梦之境》</t>
+  </si>
+  <si>
+    <t>进行色纺纱色彩和工艺的设计并运用于针织连衣裙</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/cf/f75af1ab9588d7bca250da8944bae6411d69fe.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/18.pdf</t>
+  </si>
+  <si>
+    <t>时尚女士羽绒服的创新设计</t>
+  </si>
+  <si>
+    <t>设计分为羽绒服装与羽绒面料服饰品三个成品。设计一成品为“轻商务”，利用灵感花型“坚韧格纹”与西装版型拼接，体现女性的坚韧，如名字一样可穿着于较正式场合；设计二成品为“轻自然，灵感花型选择“破碎海洋”，以碎片式海洋元素拼接以警醒大众爱护海洋环境，保护我们现有的海洋资源，衣型较为休闲，特殊的翻领设计显得温柔；设计三为羽绒面料实验的衍生作品“轻出行”，利用创新羽绒面料制成子母包，以扎染的方式将面料染色后作为子包，TPU与银色闪粉结合拼接作为母包，既时尚又实用，是很好的服饰品选择。</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/30/9a9c765fc967728d9e9a8788f66e66fc569776.jpg 译</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/22.pdf</t>
+  </si>
+  <si>
+    <t>食之记忆</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/f7/cbf7a4dc5fc4b26ede683e9de869d2b737d3d8.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/24.pdf</t>
+  </si>
+  <si>
+    <t>归去来兮</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/c4/3e06fa6333b734132a5ada08b59cfa7f5e57dd.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/25.pdf</t>
+  </si>
+  <si>
+    <t>药用饮片染色纺织品创新设计</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/28.pdf</t>
+  </si>
+  <si>
+    <t>江湖少年</t>
+  </si>
+  <si>
+    <t>缂织腰封创意设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/8a/c5247ad6f85e0bf5c90ccbe0b5badd51b97d9b.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/30.pdf</t>
+  </si>
+  <si>
+    <t>散诗 | 味道的记忆</t>
+  </si>
+  <si>
+    <t>色纺毛衫面料及成品设计</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/31.pdf</t>
+  </si>
+  <si>
+    <t>去哪儿</t>
+  </si>
+  <si>
+    <t>基于分形方法的提花面料设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/5c/73972f06aa117d7b0d745b46267c06c19dba31.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/33.pdf</t>
+  </si>
+  <si>
+    <t>仿植物气孔高散湿机织面料</t>
+  </si>
+  <si>
+    <t>通过织物组织结构的设计去模拟植物叶面气孔结构，使织物具有更好的散湿性能</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/c8/f6fa8fe188d701c0c62a47544d6529602e8ce0.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/34.pdf</t>
   </si>
 </sst>
 </file>
@@ -48,12 +246,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,7 +261,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,23 +349,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,100 +364,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +418,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,15 +609,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,17 +636,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +672,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -511,153 +714,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,17 +1185,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.7" customWidth="1"/>
-    <col min="3" max="4" width="28.2" customWidth="1"/>
-    <col min="5" max="5" width="106" customWidth="1"/>
+    <col min="2" max="2" width="27.9" customWidth="1"/>
+    <col min="3" max="3" width="70.9" customWidth="1"/>
+    <col min="4" max="4" width="28.2" customWidth="1"/>
+    <col min="5" max="5" width="39.9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1017,18 +1224,341 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://vote.ilingyue.cn/media/1.pdf"/>
+    <hyperlink ref="E5" r:id="rId1" display="https://vote.ilingyue.cn/media/8.pdf" tooltip="https://vote.ilingyue.cn/media/8.pdf"/>
+    <hyperlink ref="E20" r:id="rId2" display="https://vote.ilingyue.cn/media/33.pdf" tooltip="https://vote.ilingyue.cn/media/33.pdf"/>
+    <hyperlink ref="E12" r:id="rId3" display="https://vote.ilingyue.cn/media/16.pdf" tooltip="https://vote.ilingyue.cn/media/16.pdf"/>
+    <hyperlink ref="E18" r:id="rId4" display="https://vote.ilingyue.cn/media/30.pdf" tooltip="https://vote.ilingyue.cn/media/30.pdf"/>
+    <hyperlink ref="E19" r:id="rId5" display="https://vote.ilingyue.cn/media/31.pdf" tooltip="https://vote.ilingyue.cn/media/31.pdf"/>
+    <hyperlink ref="E4" r:id="rId6" display="https://vote.ilingyue.cn/media/6.pdf" tooltip="https://vote.ilingyue.cn/media/6.pdf"/>
+    <hyperlink ref="E21" r:id="rId7" display="https://vote.ilingyue.cn/media/34.pdf" tooltip="https://vote.ilingyue.cn/media/34.pdf"/>
+    <hyperlink ref="E14" r:id="rId8" display="https://vote.ilingyue.cn/media/22.pdf" tooltip="https://vote.ilingyue.cn/media/22.pdf"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://vote.ilingyue.cn/media/13.pdf" tooltip="https://vote.ilingyue.cn/media/13.pdf"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://vote.ilingyue.cn/media/15.pdf" tooltip="https://vote.ilingyue.cn/media/15.pdf"/>
+    <hyperlink ref="E13" r:id="rId11" display="https://vote.ilingyue.cn/media/18.pdf" tooltip="https://vote.ilingyue.cn/media/18.pdf"/>
+    <hyperlink ref="E15" r:id="rId12" display="https://vote.ilingyue.cn/media/24.pdf" tooltip="https://vote.ilingyue.cn/media/24.pdf"/>
+    <hyperlink ref="E17" r:id="rId13" display="https://vote.ilingyue.cn/media/28.pdf" tooltip="https://vote.ilingyue.cn/media/28.pdf"/>
+    <hyperlink ref="E7" r:id="rId14" display="https://vote.ilingyue.cn/media/10.pdf" tooltip="https://vote.ilingyue.cn/media/10.pdf"/>
+    <hyperlink ref="E3" r:id="rId15" display="https://vote.ilingyue.cn/media/3.pdf" tooltip="https://vote.ilingyue.cn/media/3.pdf"/>
+    <hyperlink ref="E6" r:id="rId16" display="https://vote.ilingyue.cn/media/9.pdf" tooltip="https://vote.ilingyue.cn/media/9.pdf"/>
+    <hyperlink ref="E9" r:id="rId17" display="https://vote.ilingyue.cn/media/12.pdf" tooltip="https://vote.ilingyue.cn/media/12.pdf"/>
+    <hyperlink ref="E16" r:id="rId18" display="https://vote.ilingyue.cn/media/25.pdf" tooltip="https://vote.ilingyue.cn/media/25.pdf"/>
+    <hyperlink ref="E2" r:id="rId19" display="https://vote.ilingyue.cn/media/1.pdf" tooltip="https://vote.ilingyue.cn/media/1.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/作品表格模版.xlsx
+++ b/作品表格模版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>作品 id</t>
   </si>
@@ -46,7 +46,7 @@
     <t>植物染产品的目标客群在于18岁-35岁年轻女性，她们是一群个性化、有独立想法的女性，愿意为自己认可的价值观而买单，经过市场调研，她们对于面料再造工艺也有着内心期许，再加上植物染本身染色质朴朴素的特质，笔者选取了面料再造工艺与植物染进行了产品上的结合，主要分为三种手法来呈现，分别是大面积拼布、小面积贴布和经纬交织；在调研中显示，抱枕在消费者购买过植物染产品中排第三，在家用纺织品中排第一，故采用抱枕为载体进行设计与制作。</t>
   </si>
   <si>
-    <t>https://img.vim-cn.com/ef/044c30ccbf5c4543c23c40045c609b1b1a0b25.png 译</t>
+    <t>https://img.vim-cn.com/ef/044c30ccbf5c4543c23c40045c609b1b1a0b25.png</t>
   </si>
   <si>
     <t>https://vote.ilingyue.cn/media/3.pdf</t>
@@ -58,7 +58,7 @@
     <t>用再生海洋塑料面料结合环保的主题进行印花设计以及服装的设计</t>
   </si>
   <si>
-    <t>https://img.vim-cn.com/97/2a4e0cfe16d7ca5fea0c8d15dbbf71250cc273.jpg 译</t>
+    <t>https://img.vim-cn.com/97/2a4e0cfe16d7ca5fea0c8d15dbbf71250cc273.jpg</t>
   </si>
   <si>
     <t>https://vote.ilingyue.cn/media/6.pdf</t>
@@ -82,6 +82,9 @@
     <t>走出固有的审美风格，走出传统，用穿着释放个性</t>
   </si>
   <si>
+    <t>https://img.vim-cn.com/19/8e0171b8c34701895be54b60989c57007e692f.png</t>
+  </si>
+  <si>
     <t>https://vote.ilingyue.cn/media/9.pdf</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>功能性运动毛针织面料设计</t>
   </si>
   <si>
-    <t>https://img.vim-cn.com/60/1a1197e8490b1e2bf4b144df953320390c13f2.jpg 译</t>
+    <t>https://img.vim-cn.com/60/1a1197e8490b1e2bf4b144df953320390c13f2.jpg</t>
   </si>
   <si>
     <t>https://vote.ilingyue.cn/media/10.pdf</t>
@@ -166,7 +169,7 @@
     <t>设计分为羽绒服装与羽绒面料服饰品三个成品。设计一成品为“轻商务”，利用灵感花型“坚韧格纹”与西装版型拼接，体现女性的坚韧，如名字一样可穿着于较正式场合；设计二成品为“轻自然，灵感花型选择“破碎海洋”，以碎片式海洋元素拼接以警醒大众爱护海洋环境，保护我们现有的海洋资源，衣型较为休闲，特殊的翻领设计显得温柔；设计三为羽绒面料实验的衍生作品“轻出行”，利用创新羽绒面料制成子母包，以扎染的方式将面料染色后作为子包，TPU与银色闪粉结合拼接作为母包，既时尚又实用，是很好的服饰品选择。</t>
   </si>
   <si>
-    <t>https://img.vim-cn.com/30/9a9c765fc967728d9e9a8788f66e66fc569776.jpg 译</t>
+    <t>https://img.vim-cn.com/30/9a9c765fc967728d9e9a8788f66e66fc569776.jpg</t>
   </si>
   <si>
     <t>https://vote.ilingyue.cn/media/22.pdf</t>
@@ -1187,15 +1190,15 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="27.9" customWidth="1"/>
     <col min="3" max="3" width="70.9" customWidth="1"/>
-    <col min="4" max="4" width="28.2" customWidth="1"/>
+    <col min="4" max="4" width="87.5" customWidth="1"/>
     <col min="5" max="5" width="39.9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1294,8 +1297,11 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1303,27 +1309,30 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1331,16 +1340,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1348,16 +1357,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1365,13 +1374,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1379,16 +1391,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1396,16 +1408,16 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1413,16 +1425,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1430,16 +1442,16 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1447,16 +1459,16 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1464,13 +1476,16 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1478,16 +1493,16 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1495,13 +1510,16 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1509,16 +1527,16 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1526,16 +1544,16 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1559,6 +1577,10 @@
     <hyperlink ref="E9" r:id="rId17" display="https://vote.ilingyue.cn/media/12.pdf" tooltip="https://vote.ilingyue.cn/media/12.pdf"/>
     <hyperlink ref="E16" r:id="rId18" display="https://vote.ilingyue.cn/media/25.pdf" tooltip="https://vote.ilingyue.cn/media/25.pdf"/>
     <hyperlink ref="E2" r:id="rId19" display="https://vote.ilingyue.cn/media/1.pdf" tooltip="https://vote.ilingyue.cn/media/1.pdf"/>
+    <hyperlink ref="D3" r:id="rId20" display="https://img.vim-cn.com/ef/044c30ccbf5c4543c23c40045c609b1b1a0b25.png"/>
+    <hyperlink ref="D4" r:id="rId21" display="https://img.vim-cn.com/97/2a4e0cfe16d7ca5fea0c8d15dbbf71250cc273.jpg"/>
+    <hyperlink ref="D7" r:id="rId22" display="https://img.vim-cn.com/60/1a1197e8490b1e2bf4b144df953320390c13f2.jpg"/>
+    <hyperlink ref="D14" r:id="rId23" display="https://img.vim-cn.com/30/9a9c765fc967728d9e9a8788f66e66fc569776.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/作品表格模版.xlsx
+++ b/作品表格模版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
   <si>
     <t>作品 id</t>
   </si>
@@ -40,6 +40,15 @@
     <t>https://vote.ilingyue.cn/media/1.pdf</t>
   </si>
   <si>
+    <t>蜡染在牛仔再造中的创新设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/ce/aba7bab33e08fd147e9bf7fdebafb1a689efba.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/2.pdf</t>
+  </si>
+  <si>
     <t>植物染紫色系抱枕设计</t>
   </si>
   <si>
@@ -52,6 +61,18 @@
     <t>https://vote.ilingyue.cn/media/3.pdf</t>
   </si>
   <si>
+    <t>复古风格的色纺纱混色格纹开衫</t>
+  </si>
+  <si>
+    <t>色纺是一种将纤维预先染色，然后纺制成纱的低碳环保的纺纱方式，不同于传统的对纱线或布料染色，这种方式得到的产品显色更加自然柔和。有色部分以不同的比例和不同的纺纱方式混合可以得到多种风格的色纺纱产品，有的粗犷豪迈，呈现肌理感；也有的产品具有空间立体感，更加柔和，能够体现出一种温柔的怀旧复古风。因此，本次课题将色纺与复古风结合，通过一系列市场调研，选择格纹作为复古载体，利用复古色系进行混色格纹样式的设计，并通过多次配色打样实验，最终得到具有复古风格的色纺纱混色格纹开衫产品。</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/c5/5d3b4de9a9e3490ff294df57d8492bf2410f79.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/4.pdf</t>
+  </si>
+  <si>
     <t>再生海洋塑料面料的开发与应用</t>
   </si>
   <si>
@@ -82,30 +103,33 @@
     <t>走出固有的审美风格，走出传统，用穿着释放个性</t>
   </si>
   <si>
+    <t>https://img.vim-cn.com/95/a7dac9799624b683db6af2067cf7d0f2169955.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/9.pdf</t>
+  </si>
+  <si>
+    <t>生生谓之易</t>
+  </si>
+  <si>
+    <t>功能性运动毛针织面料设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/60/1a1197e8490b1e2bf4b144df953320390c13f2.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/10.pdf</t>
+  </si>
+  <si>
+    <t>家居服设计</t>
+  </si>
+  <si>
+    <t>本课题采取问卷调研和品牌调研两种方式，了解家居服的面料、款式、颜色、价格以及市场状况。基于调研结果，以大学生群体为对象，从面料、款式、图案设计对家居服进行设计。</t>
+  </si>
+  <si>
     <t>https://img.vim-cn.com/19/8e0171b8c34701895be54b60989c57007e692f.png</t>
   </si>
   <si>
-    <t>https://vote.ilingyue.cn/media/9.pdf</t>
-  </si>
-  <si>
-    <t>生生谓之易</t>
-  </si>
-  <si>
-    <t>功能性运动毛针织面料设计</t>
-  </si>
-  <si>
-    <t>https://img.vim-cn.com/60/1a1197e8490b1e2bf4b144df953320390c13f2.jpg</t>
-  </si>
-  <si>
-    <t>https://vote.ilingyue.cn/media/10.pdf</t>
-  </si>
-  <si>
-    <t>家居服设计</t>
-  </si>
-  <si>
-    <t>本课题采取问卷调研和品牌调研两种方式，了解家居服的面料、款式、颜色、价格以及市场状况。基于调研结果，以大学生群体为对象，从面料、款式、图案设计对家居服进行设计。</t>
-  </si>
-  <si>
     <t>以保护濒危动物为主题的数码印花丝巾设计</t>
   </si>
   <si>
@@ -124,7 +148,7 @@
     <t>以通经断纬的传统工艺织造的装饰品</t>
   </si>
   <si>
-    <t>https://img.vim-cn.com/97/1828a49290ce70f9cc285e57b4ec0713e64bf2.png</t>
+    <t>https://img.vim-cn.com/8c/23d72cd6673ad9b7756552101c7cd64aa580a5.png</t>
   </si>
   <si>
     <t>https://vote.ilingyue.cn/media/13.pdf</t>
@@ -136,6 +160,9 @@
     <t>以夏日风情为核心概念展开设计，通过手工编织，再结合手工染色，完成整个包袋的设计与制作。</t>
   </si>
   <si>
+    <t>https://img.vim-cn.com/01/366368200e5aa62e2ba4779cebd586ef2db890.png</t>
+  </si>
+  <si>
     <t>https://vote.ilingyue.cn/media/15.pdf</t>
   </si>
   <si>
@@ -151,6 +178,18 @@
     <t>https://vote.ilingyue.cn/media/16.pdf</t>
   </si>
   <si>
+    <t>以70年代文工团为背景的泳衣面料改造和产品开发</t>
+  </si>
+  <si>
+    <t>本课题以70年代文工团为背景的电影《芳华》为灵感，进行泳衣的面料改造与产品开发。这部电影讲述了军队文工团时代一群正值芳华的少年与少女们，经历着丰富多彩充满激情的文工团生活，在这里发生的爱情、友情与理想，充满着年代的情怀，是最独特的记忆，也是属于他们这一代的美丽年华。整部影片的氛围呈现了一种温暖与悲怆的交错，画面颜色多为暖色调，风格复古。以此部影片为灵感，以影片中出现的的复古泳衣作为研究对象，进行泳衣面料改造与产品开发，完成了5件复古泳衣的制作。</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/1d/405c3409e717d8c834472d2bff4e2cab1a8b3b.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/17.pdf</t>
+  </si>
+  <si>
     <t>《幻梦之境》</t>
   </si>
   <si>
@@ -163,6 +202,15 @@
     <t>https://vote.ilingyue.cn/media/18.pdf</t>
   </si>
   <si>
+    <t>《时间 · 行走》</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/8b/84e11f18f97d8e657d2433981f3deeef9b3bc1.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/19.pdf</t>
+  </si>
+  <si>
     <t>时尚女士羽绒服的创新设计</t>
   </si>
   <si>
@@ -193,9 +241,36 @@
     <t>https://vote.ilingyue.cn/media/25.pdf</t>
   </si>
   <si>
+    <t>传统花型纱罗织物与创新几何数码印花组合设计</t>
+  </si>
+  <si>
+    <t>纱罗织物作为我国最早的织物之一,是丝织物中的奢侈品。过去一度面临失传，如今已被列入国家非物质文化遗产名录。通过对古代纱罗织物的残缺纹样进行复原改良设计和组织设计，并且与数码印花相结合，达到创新保护的目的。织花纹样以花中君子为主题，选择了清朝三款纹样，它们象征高尚的品格，对织物使用者具有美好寓意。印花图案以时尚几何纹样来进行创作。用几何印花图案重新演绎传统风格纹样，达到创新设计目的。</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/df/dcfe142e5ecf85c5c5a4b0ab750102388972f4.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/26.pdf</t>
+  </si>
+  <si>
+    <t>印象千禧</t>
+  </si>
+  <si>
+    <t>本设计选取千禧一代的零食玩具与文化作为创作灵感进行电脑收纳包面料的设计与开发。设计以千禧童年-少年-成年的成长过程贯穿主题，描绘属于千禧群体的独特时代，表达千禧一代对逝去童年与少年的怀念，鼓励其对成年时代存有美好希冀。</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/6f/ce74e016054054db3f8167655c348f32c88dde.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/27.pdf</t>
+  </si>
+  <si>
     <t>药用饮片染色纺织品创新设计</t>
   </si>
   <si>
+    <t>https://img.vim-cn.com/6d/7854a633785947977995f270f7546e43492c41.png</t>
+  </si>
+  <si>
     <t>https://vote.ilingyue.cn/media/28.pdf</t>
   </si>
   <si>
@@ -218,6 +293,15 @@
   </si>
   <si>
     <t>https://vote.ilingyue.cn/media/31.pdf</t>
+  </si>
+  <si>
+    <t>印花面料设计与城市纪念创意产品开发</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/62/2187618db194286748affa20f5974fa2ca9a6b.jpg</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/32.pdf</t>
   </si>
   <si>
     <t>去哪儿</t>
@@ -254,7 +338,14 @@
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,156 +808,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1188,17 +1282,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="27.9" customWidth="1"/>
-    <col min="3" max="3" width="70.9" customWidth="1"/>
-    <col min="4" max="4" width="87.5" customWidth="1"/>
+    <col min="3" max="3" width="51.2" customWidth="1"/>
+    <col min="4" max="4" width="72.4" customWidth="1"/>
     <col min="5" max="5" width="39.9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1238,140 +1332,140 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
+      <c r="E8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -1380,207 +1474,333 @@
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="https://vote.ilingyue.cn/media/8.pdf" tooltip="https://vote.ilingyue.cn/media/8.pdf"/>
-    <hyperlink ref="E20" r:id="rId2" display="https://vote.ilingyue.cn/media/33.pdf" tooltip="https://vote.ilingyue.cn/media/33.pdf"/>
-    <hyperlink ref="E12" r:id="rId3" display="https://vote.ilingyue.cn/media/16.pdf" tooltip="https://vote.ilingyue.cn/media/16.pdf"/>
-    <hyperlink ref="E18" r:id="rId4" display="https://vote.ilingyue.cn/media/30.pdf" tooltip="https://vote.ilingyue.cn/media/30.pdf"/>
-    <hyperlink ref="E19" r:id="rId5" display="https://vote.ilingyue.cn/media/31.pdf" tooltip="https://vote.ilingyue.cn/media/31.pdf"/>
-    <hyperlink ref="E4" r:id="rId6" display="https://vote.ilingyue.cn/media/6.pdf" tooltip="https://vote.ilingyue.cn/media/6.pdf"/>
-    <hyperlink ref="E21" r:id="rId7" display="https://vote.ilingyue.cn/media/34.pdf" tooltip="https://vote.ilingyue.cn/media/34.pdf"/>
-    <hyperlink ref="E14" r:id="rId8" display="https://vote.ilingyue.cn/media/22.pdf" tooltip="https://vote.ilingyue.cn/media/22.pdf"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://vote.ilingyue.cn/media/13.pdf" tooltip="https://vote.ilingyue.cn/media/13.pdf"/>
-    <hyperlink ref="E11" r:id="rId10" display="https://vote.ilingyue.cn/media/15.pdf" tooltip="https://vote.ilingyue.cn/media/15.pdf"/>
-    <hyperlink ref="E13" r:id="rId11" display="https://vote.ilingyue.cn/media/18.pdf" tooltip="https://vote.ilingyue.cn/media/18.pdf"/>
-    <hyperlink ref="E15" r:id="rId12" display="https://vote.ilingyue.cn/media/24.pdf" tooltip="https://vote.ilingyue.cn/media/24.pdf"/>
-    <hyperlink ref="E17" r:id="rId13" display="https://vote.ilingyue.cn/media/28.pdf" tooltip="https://vote.ilingyue.cn/media/28.pdf"/>
-    <hyperlink ref="E7" r:id="rId14" display="https://vote.ilingyue.cn/media/10.pdf" tooltip="https://vote.ilingyue.cn/media/10.pdf"/>
-    <hyperlink ref="E3" r:id="rId15" display="https://vote.ilingyue.cn/media/3.pdf" tooltip="https://vote.ilingyue.cn/media/3.pdf"/>
-    <hyperlink ref="E6" r:id="rId16" display="https://vote.ilingyue.cn/media/9.pdf" tooltip="https://vote.ilingyue.cn/media/9.pdf"/>
-    <hyperlink ref="E9" r:id="rId17" display="https://vote.ilingyue.cn/media/12.pdf" tooltip="https://vote.ilingyue.cn/media/12.pdf"/>
-    <hyperlink ref="E16" r:id="rId18" display="https://vote.ilingyue.cn/media/25.pdf" tooltip="https://vote.ilingyue.cn/media/25.pdf"/>
+    <hyperlink ref="E7" r:id="rId1" display="https://vote.ilingyue.cn/media/8.pdf" tooltip="https://vote.ilingyue.cn/media/8.pdf"/>
+    <hyperlink ref="E27" r:id="rId2" display="https://vote.ilingyue.cn/media/33.pdf" tooltip="https://vote.ilingyue.cn/media/33.pdf"/>
+    <hyperlink ref="E14" r:id="rId3" display="https://vote.ilingyue.cn/media/16.pdf" tooltip="https://vote.ilingyue.cn/media/16.pdf"/>
+    <hyperlink ref="E24" r:id="rId4" display="https://vote.ilingyue.cn/media/30.pdf" tooltip="https://vote.ilingyue.cn/media/30.pdf"/>
+    <hyperlink ref="E25" r:id="rId5" display="https://vote.ilingyue.cn/media/31.pdf" tooltip="https://vote.ilingyue.cn/media/31.pdf"/>
+    <hyperlink ref="E6" r:id="rId6" display="https://vote.ilingyue.cn/media/6.pdf" tooltip="https://vote.ilingyue.cn/media/6.pdf"/>
+    <hyperlink ref="E28" r:id="rId7" display="https://vote.ilingyue.cn/media/34.pdf" tooltip="https://vote.ilingyue.cn/media/34.pdf"/>
+    <hyperlink ref="E18" r:id="rId8" display="https://vote.ilingyue.cn/media/22.pdf" tooltip="https://vote.ilingyue.cn/media/22.pdf"/>
+    <hyperlink ref="E12" r:id="rId9" display="https://vote.ilingyue.cn/media/13.pdf" tooltip="https://vote.ilingyue.cn/media/13.pdf"/>
+    <hyperlink ref="E13" r:id="rId10" display="https://vote.ilingyue.cn/media/15.pdf" tooltip="https://vote.ilingyue.cn/media/15.pdf"/>
+    <hyperlink ref="E16" r:id="rId11" display="https://vote.ilingyue.cn/media/18.pdf" tooltip="https://vote.ilingyue.cn/media/18.pdf"/>
+    <hyperlink ref="E19" r:id="rId12" display="https://vote.ilingyue.cn/media/24.pdf" tooltip="https://vote.ilingyue.cn/media/24.pdf"/>
+    <hyperlink ref="E23" r:id="rId13" display="https://vote.ilingyue.cn/media/28.pdf" tooltip="https://vote.ilingyue.cn/media/28.pdf"/>
+    <hyperlink ref="E9" r:id="rId14" display="https://vote.ilingyue.cn/media/10.pdf" tooltip="https://vote.ilingyue.cn/media/10.pdf"/>
+    <hyperlink ref="E4" r:id="rId15" display="https://vote.ilingyue.cn/media/3.pdf" tooltip="https://vote.ilingyue.cn/media/3.pdf"/>
+    <hyperlink ref="E8" r:id="rId16" display="https://vote.ilingyue.cn/media/9.pdf" tooltip="https://vote.ilingyue.cn/media/9.pdf"/>
+    <hyperlink ref="E11" r:id="rId17" display="https://vote.ilingyue.cn/media/12.pdf" tooltip="https://vote.ilingyue.cn/media/12.pdf"/>
+    <hyperlink ref="E20" r:id="rId18" display="https://vote.ilingyue.cn/media/25.pdf" tooltip="https://vote.ilingyue.cn/media/25.pdf"/>
     <hyperlink ref="E2" r:id="rId19" display="https://vote.ilingyue.cn/media/1.pdf" tooltip="https://vote.ilingyue.cn/media/1.pdf"/>
-    <hyperlink ref="D3" r:id="rId20" display="https://img.vim-cn.com/ef/044c30ccbf5c4543c23c40045c609b1b1a0b25.png"/>
-    <hyperlink ref="D4" r:id="rId21" display="https://img.vim-cn.com/97/2a4e0cfe16d7ca5fea0c8d15dbbf71250cc273.jpg"/>
-    <hyperlink ref="D7" r:id="rId22" display="https://img.vim-cn.com/60/1a1197e8490b1e2bf4b144df953320390c13f2.jpg"/>
-    <hyperlink ref="D14" r:id="rId23" display="https://img.vim-cn.com/30/9a9c765fc967728d9e9a8788f66e66fc569776.jpg"/>
+    <hyperlink ref="D4" r:id="rId20" display="https://img.vim-cn.com/ef/044c30ccbf5c4543c23c40045c609b1b1a0b25.png"/>
+    <hyperlink ref="D6" r:id="rId21" display="https://img.vim-cn.com/97/2a4e0cfe16d7ca5fea0c8d15dbbf71250cc273.jpg"/>
+    <hyperlink ref="D9" r:id="rId22" display="https://img.vim-cn.com/60/1a1197e8490b1e2bf4b144df953320390c13f2.jpg"/>
+    <hyperlink ref="D18" r:id="rId23" display="https://img.vim-cn.com/30/9a9c765fc967728d9e9a8788f66e66fc569776.jpg"/>
+    <hyperlink ref="D8" r:id="rId24" display="https://img.vim-cn.com/95/a7dac9799624b683db6af2067cf7d0f2169955.png"/>
+    <hyperlink ref="E15" r:id="rId25" display="https://vote.ilingyue.cn/media/17.pdf" tooltip="https://vote.ilingyue.cn/media/17.pdf"/>
+    <hyperlink ref="D17" r:id="rId26" display="https://img.vim-cn.com/8b/84e11f18f97d8e657d2433981f3deeef9b3bc1.png"/>
+    <hyperlink ref="E17" r:id="rId27" display="https://vote.ilingyue.cn/media/19.pdf" tooltip="https://vote.ilingyue.cn/media/19.pdf"/>
+    <hyperlink ref="E22" r:id="rId28" display="https://vote.ilingyue.cn/media/27.pdf" tooltip="https://vote.ilingyue.cn/media/27.pdf"/>
+    <hyperlink ref="E26" r:id="rId29" display="https://vote.ilingyue.cn/media/32.pdf" tooltip="https://vote.ilingyue.cn/media/32.pdf"/>
+    <hyperlink ref="E5" r:id="rId30" display="https://vote.ilingyue.cn/media/4.pdf" tooltip="https://vote.ilingyue.cn/media/4.pdf"/>
+    <hyperlink ref="D3" r:id="rId31" display="https://img.vim-cn.com/ce/aba7bab33e08fd147e9bf7fdebafb1a689efba.png"/>
+    <hyperlink ref="E3" r:id="rId32" display="https://vote.ilingyue.cn/media/2.pdf" tooltip="https://vote.ilingyue.cn/media/2.pdf"/>
+    <hyperlink ref="E21" r:id="rId33" display="https://vote.ilingyue.cn/media/26.pdf" tooltip="https://vote.ilingyue.cn/media/26.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/作品表格模版.xlsx
+++ b/作品表格模版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>作品 id</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>https://img.vim-cn.com/c4/3e06fa6333b734132a5ada08b59cfa7f5e57dd.jpg</t>
-  </si>
-  <si>
-    <t>https://vote.ilingyue.cn/media/25.pdf</t>
   </si>
   <si>
     <t>传统花型纱罗织物与创新几何数码印花组合设计</t>
@@ -1285,7 +1282,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1616,7 +1613,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>25</v>
       </c>
@@ -1628,9 +1625,6 @@
       </c>
       <c r="D20" t="s">
         <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1638,16 +1632,16 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1655,16 +1649,16 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>80</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>81</v>
-      </c>
-      <c r="E22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1672,16 +1666,16 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>84</v>
-      </c>
-      <c r="E23" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1689,16 +1683,16 @@
         <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" t="s">
         <v>87</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>88</v>
-      </c>
-      <c r="E24" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1706,16 +1700,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
         <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>91</v>
       </c>
       <c r="D25" t="s">
         <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1723,13 +1717,13 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
         <v>93</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>94</v>
-      </c>
-      <c r="E26" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1737,16 +1731,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
         <v>96</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>97</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>98</v>
-      </c>
-      <c r="E27" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1754,16 +1748,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
         <v>100</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>101</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>102</v>
-      </c>
-      <c r="E28" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1785,22 +1779,21 @@
     <hyperlink ref="E4" r:id="rId15" display="https://vote.ilingyue.cn/media/3.pdf" tooltip="https://vote.ilingyue.cn/media/3.pdf"/>
     <hyperlink ref="E8" r:id="rId16" display="https://vote.ilingyue.cn/media/9.pdf" tooltip="https://vote.ilingyue.cn/media/9.pdf"/>
     <hyperlink ref="E11" r:id="rId17" display="https://vote.ilingyue.cn/media/12.pdf" tooltip="https://vote.ilingyue.cn/media/12.pdf"/>
-    <hyperlink ref="E20" r:id="rId18" display="https://vote.ilingyue.cn/media/25.pdf" tooltip="https://vote.ilingyue.cn/media/25.pdf"/>
-    <hyperlink ref="E2" r:id="rId19" display="https://vote.ilingyue.cn/media/1.pdf" tooltip="https://vote.ilingyue.cn/media/1.pdf"/>
-    <hyperlink ref="D4" r:id="rId20" display="https://img.vim-cn.com/ef/044c30ccbf5c4543c23c40045c609b1b1a0b25.png"/>
-    <hyperlink ref="D6" r:id="rId21" display="https://img.vim-cn.com/97/2a4e0cfe16d7ca5fea0c8d15dbbf71250cc273.jpg"/>
-    <hyperlink ref="D9" r:id="rId22" display="https://img.vim-cn.com/60/1a1197e8490b1e2bf4b144df953320390c13f2.jpg"/>
-    <hyperlink ref="D18" r:id="rId23" display="https://img.vim-cn.com/30/9a9c765fc967728d9e9a8788f66e66fc569776.jpg"/>
-    <hyperlink ref="D8" r:id="rId24" display="https://img.vim-cn.com/95/a7dac9799624b683db6af2067cf7d0f2169955.png"/>
-    <hyperlink ref="E15" r:id="rId25" display="https://vote.ilingyue.cn/media/17.pdf" tooltip="https://vote.ilingyue.cn/media/17.pdf"/>
-    <hyperlink ref="D17" r:id="rId26" display="https://img.vim-cn.com/8b/84e11f18f97d8e657d2433981f3deeef9b3bc1.png"/>
-    <hyperlink ref="E17" r:id="rId27" display="https://vote.ilingyue.cn/media/19.pdf" tooltip="https://vote.ilingyue.cn/media/19.pdf"/>
-    <hyperlink ref="E22" r:id="rId28" display="https://vote.ilingyue.cn/media/27.pdf" tooltip="https://vote.ilingyue.cn/media/27.pdf"/>
-    <hyperlink ref="E26" r:id="rId29" display="https://vote.ilingyue.cn/media/32.pdf" tooltip="https://vote.ilingyue.cn/media/32.pdf"/>
-    <hyperlink ref="E5" r:id="rId30" display="https://vote.ilingyue.cn/media/4.pdf" tooltip="https://vote.ilingyue.cn/media/4.pdf"/>
-    <hyperlink ref="D3" r:id="rId31" display="https://img.vim-cn.com/ce/aba7bab33e08fd147e9bf7fdebafb1a689efba.png"/>
-    <hyperlink ref="E3" r:id="rId32" display="https://vote.ilingyue.cn/media/2.pdf" tooltip="https://vote.ilingyue.cn/media/2.pdf"/>
-    <hyperlink ref="E21" r:id="rId33" display="https://vote.ilingyue.cn/media/26.pdf" tooltip="https://vote.ilingyue.cn/media/26.pdf"/>
+    <hyperlink ref="E2" r:id="rId18" display="https://vote.ilingyue.cn/media/1.pdf" tooltip="https://vote.ilingyue.cn/media/1.pdf"/>
+    <hyperlink ref="D4" r:id="rId19" display="https://img.vim-cn.com/ef/044c30ccbf5c4543c23c40045c609b1b1a0b25.png"/>
+    <hyperlink ref="D6" r:id="rId20" display="https://img.vim-cn.com/97/2a4e0cfe16d7ca5fea0c8d15dbbf71250cc273.jpg"/>
+    <hyperlink ref="D9" r:id="rId21" display="https://img.vim-cn.com/60/1a1197e8490b1e2bf4b144df953320390c13f2.jpg"/>
+    <hyperlink ref="D18" r:id="rId22" display="https://img.vim-cn.com/30/9a9c765fc967728d9e9a8788f66e66fc569776.jpg"/>
+    <hyperlink ref="D8" r:id="rId23" display="https://img.vim-cn.com/95/a7dac9799624b683db6af2067cf7d0f2169955.png"/>
+    <hyperlink ref="E15" r:id="rId24" display="https://vote.ilingyue.cn/media/17.pdf" tooltip="https://vote.ilingyue.cn/media/17.pdf"/>
+    <hyperlink ref="D17" r:id="rId25" display="https://img.vim-cn.com/8b/84e11f18f97d8e657d2433981f3deeef9b3bc1.png"/>
+    <hyperlink ref="E17" r:id="rId26" display="https://vote.ilingyue.cn/media/19.pdf" tooltip="https://vote.ilingyue.cn/media/19.pdf"/>
+    <hyperlink ref="E22" r:id="rId27" display="https://vote.ilingyue.cn/media/27.pdf" tooltip="https://vote.ilingyue.cn/media/27.pdf"/>
+    <hyperlink ref="E26" r:id="rId28" display="https://vote.ilingyue.cn/media/32.pdf" tooltip="https://vote.ilingyue.cn/media/32.pdf"/>
+    <hyperlink ref="E5" r:id="rId29" display="https://vote.ilingyue.cn/media/4.pdf" tooltip="https://vote.ilingyue.cn/media/4.pdf"/>
+    <hyperlink ref="D3" r:id="rId30" display="https://img.vim-cn.com/ce/aba7bab33e08fd147e9bf7fdebafb1a689efba.png"/>
+    <hyperlink ref="E3" r:id="rId31" display="https://vote.ilingyue.cn/media/2.pdf" tooltip="https://vote.ilingyue.cn/media/2.pdf"/>
+    <hyperlink ref="E21" r:id="rId32" display="https://vote.ilingyue.cn/media/26.pdf" tooltip="https://vote.ilingyue.cn/media/26.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/作品表格模版.xlsx
+++ b/作品表格模版.xlsx
@@ -1281,8 +1281,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="4"/>

--- a/作品表格模版.xlsx
+++ b/作品表格模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21696" windowHeight="9228"/>
+    <workbookView windowWidth="17280" windowHeight="9228"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
   <si>
     <t>作品 id</t>
   </si>
@@ -238,6 +238,9 @@
     <t>https://img.vim-cn.com/c4/3e06fa6333b734132a5ada08b59cfa7f5e57dd.jpg</t>
   </si>
   <si>
+    <t>https://vote.ilingyue.cn/media/25.pdf</t>
+  </si>
+  <si>
     <t>传统花型纱罗织物与创新几何数码印花组合设计</t>
   </si>
   <si>
@@ -287,6 +290,9 @@
   </si>
   <si>
     <t>色纺毛衫面料及成品设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/4c/d5803a0ecf8002aff46cf6ac7233c87fc8e866.png</t>
   </si>
   <si>
     <t>https://vote.ilingyue.cn/media/31.pdf</t>
@@ -335,7 +341,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,13 +351,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -372,6 +371,114 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,114 +498,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -515,55 +514,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,25 +622,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,79 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,6 +707,24 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,9 +746,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,17 +785,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -776,177 +799,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -954,10 +953,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1281,8 +1280,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1613,7 +1612,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>25</v>
       </c>
@@ -1625,6 +1624,9 @@
       </c>
       <c r="D20" t="s">
         <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1632,16 +1634,16 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1649,16 +1651,16 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1666,16 +1668,16 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1683,16 +1685,16 @@
         <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1700,16 +1702,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1717,13 +1719,13 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1731,16 +1733,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1748,16 +1750,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1794,6 +1796,8 @@
     <hyperlink ref="D3" r:id="rId30" display="https://img.vim-cn.com/ce/aba7bab33e08fd147e9bf7fdebafb1a689efba.png"/>
     <hyperlink ref="E3" r:id="rId31" display="https://vote.ilingyue.cn/media/2.pdf" tooltip="https://vote.ilingyue.cn/media/2.pdf"/>
     <hyperlink ref="E21" r:id="rId32" display="https://vote.ilingyue.cn/media/26.pdf" tooltip="https://vote.ilingyue.cn/media/26.pdf"/>
+    <hyperlink ref="D25" r:id="rId33" display="https://img.vim-cn.com/4c/d5803a0ecf8002aff46cf6ac7233c87fc8e866.png"/>
+    <hyperlink ref="E20" r:id="rId34" display="https://vote.ilingyue.cn/media/25.pdf" tooltip="https://vote.ilingyue.cn/media/25.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/作品表格模版.xlsx
+++ b/作品表格模版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
   <si>
     <t>作品 id</t>
   </si>
@@ -85,6 +85,15 @@
     <t>https://vote.ilingyue.cn/media/6.pdf</t>
   </si>
   <si>
+    <t>休闲男士羽绒服上装创意设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/31/1cc9b705393b46196a953d08c27af604ab3365.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/7.pdf</t>
+  </si>
+  <si>
     <t>《Live a good life》</t>
   </si>
   <si>
@@ -211,6 +220,15 @@
     <t>https://vote.ilingyue.cn/media/19.pdf</t>
   </si>
   <si>
+    <t>丹寨苗蜡在现代服装上的运用</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/bc/5d54d733d5a27d22b5d77fca67990df3dd8863.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/20.pdf</t>
+  </si>
+  <si>
     <t>时尚女士羽绒服的创新设计</t>
   </si>
   <si>
@@ -223,6 +241,15 @@
     <t>https://vote.ilingyue.cn/media/22.pdf</t>
   </si>
   <si>
+    <t>文创包袋的提花面料设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/2e/cac994b22a5158698a2ce329d8b876f612a55c.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/23.pdf</t>
+  </si>
+  <si>
     <t>食之记忆</t>
   </si>
   <si>
@@ -272,6 +299,12 @@
   </si>
   <si>
     <t>https://vote.ilingyue.cn/media/28.pdf</t>
+  </si>
+  <si>
+    <t>关于大梦|花式纱线毛针织面料和服装的设计与开发</t>
+  </si>
+  <si>
+    <t>花式纱线毛针织服装的一系列设计</t>
   </si>
   <si>
     <t>江湖少年</t>
@@ -1278,10 +1311,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1396,72 +1429,75 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -1472,101 +1508,98 @@
       <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -1580,44 +1613,44 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
       </c>
       <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
         <v>72</v>
@@ -1631,173 +1664,242 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
       </c>
       <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
         <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" t="s">
         <v>87</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
         <v>90</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>91</v>
-      </c>
-      <c r="D25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
         <v>94</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
         <v>95</v>
       </c>
-      <c r="E26" t="s">
+      <c r="C27" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" t="s">
-        <v>98</v>
-      </c>
       <c r="D27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" t="s">
-        <v>104</v>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="https://vote.ilingyue.cn/media/8.pdf" tooltip="https://vote.ilingyue.cn/media/8.pdf"/>
-    <hyperlink ref="E27" r:id="rId2" display="https://vote.ilingyue.cn/media/33.pdf" tooltip="https://vote.ilingyue.cn/media/33.pdf"/>
-    <hyperlink ref="E14" r:id="rId3" display="https://vote.ilingyue.cn/media/16.pdf" tooltip="https://vote.ilingyue.cn/media/16.pdf"/>
-    <hyperlink ref="E24" r:id="rId4" display="https://vote.ilingyue.cn/media/30.pdf" tooltip="https://vote.ilingyue.cn/media/30.pdf"/>
-    <hyperlink ref="E25" r:id="rId5" display="https://vote.ilingyue.cn/media/31.pdf" tooltip="https://vote.ilingyue.cn/media/31.pdf"/>
+    <hyperlink ref="E8" r:id="rId1" display="https://vote.ilingyue.cn/media/8.pdf" tooltip="https://vote.ilingyue.cn/media/8.pdf"/>
+    <hyperlink ref="E31" r:id="rId2" display="https://vote.ilingyue.cn/media/33.pdf" tooltip="https://vote.ilingyue.cn/media/33.pdf"/>
+    <hyperlink ref="E15" r:id="rId3" display="https://vote.ilingyue.cn/media/16.pdf" tooltip="https://vote.ilingyue.cn/media/16.pdf"/>
+    <hyperlink ref="E28" r:id="rId4" display="https://vote.ilingyue.cn/media/30.pdf" tooltip="https://vote.ilingyue.cn/media/30.pdf"/>
+    <hyperlink ref="E29" r:id="rId5" display="https://vote.ilingyue.cn/media/31.pdf" tooltip="https://vote.ilingyue.cn/media/31.pdf"/>
     <hyperlink ref="E6" r:id="rId6" display="https://vote.ilingyue.cn/media/6.pdf" tooltip="https://vote.ilingyue.cn/media/6.pdf"/>
-    <hyperlink ref="E28" r:id="rId7" display="https://vote.ilingyue.cn/media/34.pdf" tooltip="https://vote.ilingyue.cn/media/34.pdf"/>
-    <hyperlink ref="E18" r:id="rId8" display="https://vote.ilingyue.cn/media/22.pdf" tooltip="https://vote.ilingyue.cn/media/22.pdf"/>
-    <hyperlink ref="E12" r:id="rId9" display="https://vote.ilingyue.cn/media/13.pdf" tooltip="https://vote.ilingyue.cn/media/13.pdf"/>
-    <hyperlink ref="E13" r:id="rId10" display="https://vote.ilingyue.cn/media/15.pdf" tooltip="https://vote.ilingyue.cn/media/15.pdf"/>
-    <hyperlink ref="E16" r:id="rId11" display="https://vote.ilingyue.cn/media/18.pdf" tooltip="https://vote.ilingyue.cn/media/18.pdf"/>
-    <hyperlink ref="E19" r:id="rId12" display="https://vote.ilingyue.cn/media/24.pdf" tooltip="https://vote.ilingyue.cn/media/24.pdf"/>
-    <hyperlink ref="E23" r:id="rId13" display="https://vote.ilingyue.cn/media/28.pdf" tooltip="https://vote.ilingyue.cn/media/28.pdf"/>
-    <hyperlink ref="E9" r:id="rId14" display="https://vote.ilingyue.cn/media/10.pdf" tooltip="https://vote.ilingyue.cn/media/10.pdf"/>
+    <hyperlink ref="E32" r:id="rId7" display="https://vote.ilingyue.cn/media/34.pdf" tooltip="https://vote.ilingyue.cn/media/34.pdf"/>
+    <hyperlink ref="E20" r:id="rId8" display="https://vote.ilingyue.cn/media/22.pdf" tooltip="https://vote.ilingyue.cn/media/22.pdf"/>
+    <hyperlink ref="E13" r:id="rId9" display="https://vote.ilingyue.cn/media/13.pdf" tooltip="https://vote.ilingyue.cn/media/13.pdf"/>
+    <hyperlink ref="E14" r:id="rId10" display="https://vote.ilingyue.cn/media/15.pdf" tooltip="https://vote.ilingyue.cn/media/15.pdf"/>
+    <hyperlink ref="E17" r:id="rId11" display="https://vote.ilingyue.cn/media/18.pdf" tooltip="https://vote.ilingyue.cn/media/18.pdf"/>
+    <hyperlink ref="E22" r:id="rId12" display="https://vote.ilingyue.cn/media/24.pdf" tooltip="https://vote.ilingyue.cn/media/24.pdf"/>
+    <hyperlink ref="E26" r:id="rId13" display="https://vote.ilingyue.cn/media/28.pdf" tooltip="https://vote.ilingyue.cn/media/28.pdf"/>
+    <hyperlink ref="E10" r:id="rId14" display="https://vote.ilingyue.cn/media/10.pdf" tooltip="https://vote.ilingyue.cn/media/10.pdf"/>
     <hyperlink ref="E4" r:id="rId15" display="https://vote.ilingyue.cn/media/3.pdf" tooltip="https://vote.ilingyue.cn/media/3.pdf"/>
-    <hyperlink ref="E8" r:id="rId16" display="https://vote.ilingyue.cn/media/9.pdf" tooltip="https://vote.ilingyue.cn/media/9.pdf"/>
-    <hyperlink ref="E11" r:id="rId17" display="https://vote.ilingyue.cn/media/12.pdf" tooltip="https://vote.ilingyue.cn/media/12.pdf"/>
+    <hyperlink ref="E9" r:id="rId16" display="https://vote.ilingyue.cn/media/9.pdf" tooltip="https://vote.ilingyue.cn/media/9.pdf"/>
+    <hyperlink ref="E12" r:id="rId17" display="https://vote.ilingyue.cn/media/12.pdf" tooltip="https://vote.ilingyue.cn/media/12.pdf"/>
     <hyperlink ref="E2" r:id="rId18" display="https://vote.ilingyue.cn/media/1.pdf" tooltip="https://vote.ilingyue.cn/media/1.pdf"/>
     <hyperlink ref="D4" r:id="rId19" display="https://img.vim-cn.com/ef/044c30ccbf5c4543c23c40045c609b1b1a0b25.png"/>
     <hyperlink ref="D6" r:id="rId20" display="https://img.vim-cn.com/97/2a4e0cfe16d7ca5fea0c8d15dbbf71250cc273.jpg"/>
-    <hyperlink ref="D9" r:id="rId21" display="https://img.vim-cn.com/60/1a1197e8490b1e2bf4b144df953320390c13f2.jpg"/>
-    <hyperlink ref="D18" r:id="rId22" display="https://img.vim-cn.com/30/9a9c765fc967728d9e9a8788f66e66fc569776.jpg"/>
-    <hyperlink ref="D8" r:id="rId23" display="https://img.vim-cn.com/95/a7dac9799624b683db6af2067cf7d0f2169955.png"/>
-    <hyperlink ref="E15" r:id="rId24" display="https://vote.ilingyue.cn/media/17.pdf" tooltip="https://vote.ilingyue.cn/media/17.pdf"/>
-    <hyperlink ref="D17" r:id="rId25" display="https://img.vim-cn.com/8b/84e11f18f97d8e657d2433981f3deeef9b3bc1.png"/>
-    <hyperlink ref="E17" r:id="rId26" display="https://vote.ilingyue.cn/media/19.pdf" tooltip="https://vote.ilingyue.cn/media/19.pdf"/>
-    <hyperlink ref="E22" r:id="rId27" display="https://vote.ilingyue.cn/media/27.pdf" tooltip="https://vote.ilingyue.cn/media/27.pdf"/>
-    <hyperlink ref="E26" r:id="rId28" display="https://vote.ilingyue.cn/media/32.pdf" tooltip="https://vote.ilingyue.cn/media/32.pdf"/>
+    <hyperlink ref="D10" r:id="rId21" display="https://img.vim-cn.com/60/1a1197e8490b1e2bf4b144df953320390c13f2.jpg"/>
+    <hyperlink ref="D20" r:id="rId22" display="https://img.vim-cn.com/30/9a9c765fc967728d9e9a8788f66e66fc569776.jpg"/>
+    <hyperlink ref="D9" r:id="rId23" display="https://img.vim-cn.com/95/a7dac9799624b683db6af2067cf7d0f2169955.png"/>
+    <hyperlink ref="E16" r:id="rId24" display="https://vote.ilingyue.cn/media/17.pdf" tooltip="https://vote.ilingyue.cn/media/17.pdf"/>
+    <hyperlink ref="D18" r:id="rId25" display="https://img.vim-cn.com/8b/84e11f18f97d8e657d2433981f3deeef9b3bc1.png"/>
+    <hyperlink ref="E18" r:id="rId26" display="https://vote.ilingyue.cn/media/19.pdf" tooltip="https://vote.ilingyue.cn/media/19.pdf"/>
+    <hyperlink ref="E25" r:id="rId27" display="https://vote.ilingyue.cn/media/27.pdf" tooltip="https://vote.ilingyue.cn/media/27.pdf"/>
+    <hyperlink ref="E30" r:id="rId28" display="https://vote.ilingyue.cn/media/32.pdf" tooltip="https://vote.ilingyue.cn/media/32.pdf"/>
     <hyperlink ref="E5" r:id="rId29" display="https://vote.ilingyue.cn/media/4.pdf" tooltip="https://vote.ilingyue.cn/media/4.pdf"/>
     <hyperlink ref="D3" r:id="rId30" display="https://img.vim-cn.com/ce/aba7bab33e08fd147e9bf7fdebafb1a689efba.png"/>
     <hyperlink ref="E3" r:id="rId31" display="https://vote.ilingyue.cn/media/2.pdf" tooltip="https://vote.ilingyue.cn/media/2.pdf"/>
-    <hyperlink ref="E21" r:id="rId32" display="https://vote.ilingyue.cn/media/26.pdf" tooltip="https://vote.ilingyue.cn/media/26.pdf"/>
-    <hyperlink ref="D25" r:id="rId33" display="https://img.vim-cn.com/4c/d5803a0ecf8002aff46cf6ac7233c87fc8e866.png"/>
-    <hyperlink ref="E20" r:id="rId34" display="https://vote.ilingyue.cn/media/25.pdf" tooltip="https://vote.ilingyue.cn/media/25.pdf"/>
+    <hyperlink ref="E24" r:id="rId32" display="https://vote.ilingyue.cn/media/26.pdf" tooltip="https://vote.ilingyue.cn/media/26.pdf"/>
+    <hyperlink ref="D29" r:id="rId33" display="https://img.vim-cn.com/4c/d5803a0ecf8002aff46cf6ac7233c87fc8e866.png"/>
+    <hyperlink ref="E23" r:id="rId34" display="https://vote.ilingyue.cn/media/25.pdf" tooltip="https://vote.ilingyue.cn/media/25.pdf"/>
+    <hyperlink ref="E7" r:id="rId35" display="https://vote.ilingyue.cn/media/7.pdf" tooltip="https://vote.ilingyue.cn/media/7.pdf"/>
+    <hyperlink ref="D7" r:id="rId36" display="https://img.vim-cn.com/31/1cc9b705393b46196a953d08c27af604ab3365.png"/>
+    <hyperlink ref="E21" r:id="rId37" display="https://vote.ilingyue.cn/media/23.pdf" tooltip="https://vote.ilingyue.cn/media/23.pdf"/>
+    <hyperlink ref="E19" r:id="rId38" display="https://vote.ilingyue.cn/media/20.pdf" tooltip="https://vote.ilingyue.cn/media/20.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/作品表格模版.xlsx
+++ b/作品表格模版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
   <si>
     <t>作品 id</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>https://img.vim-cn.com/19/8e0171b8c34701895be54b60989c57007e692f.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/11.pdf</t>
   </si>
   <si>
     <t>以保护濒危动物为主题的数码印花丝巾设计</t>
@@ -1313,8 +1316,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1495,7 +1498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1507,6 +1510,9 @@
       </c>
       <c r="D11" t="s">
         <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1514,16 +1520,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1531,16 +1537,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1548,16 +1554,16 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1565,16 +1571,16 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1582,16 +1588,16 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1599,16 +1605,16 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1616,16 +1622,16 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1633,16 +1639,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1650,16 +1656,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1667,16 +1673,16 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1684,16 +1690,16 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1701,16 +1707,16 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1718,16 +1724,16 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1735,16 +1741,16 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1752,16 +1758,16 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1769,10 +1775,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -1783,16 +1789,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1800,16 +1806,16 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1817,13 +1823,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1831,16 +1837,16 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1848,16 +1854,16 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1900,8 +1906,10 @@
     <hyperlink ref="D7" r:id="rId36" display="https://img.vim-cn.com/31/1cc9b705393b46196a953d08c27af604ab3365.png"/>
     <hyperlink ref="E21" r:id="rId37" display="https://vote.ilingyue.cn/media/23.pdf" tooltip="https://vote.ilingyue.cn/media/23.pdf"/>
     <hyperlink ref="E19" r:id="rId38" display="https://vote.ilingyue.cn/media/20.pdf" tooltip="https://vote.ilingyue.cn/media/20.pdf"/>
+    <hyperlink ref="E11" r:id="rId39" display="https://vote.ilingyue.cn/media/11.pdf" tooltip="https://vote.ilingyue.cn/media/11.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/作品表格模版.xlsx
+++ b/作品表格模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="9228"/>
+    <workbookView windowWidth="21696" windowHeight="9228"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="119">
   <si>
     <t>作品 id</t>
   </si>
@@ -136,7 +136,7 @@
     <t>本课题采取问卷调研和品牌调研两种方式，了解家居服的面料、款式、颜色、价格以及市场状况。基于调研结果，以大学生群体为对象，从面料、款式、图案设计对家居服进行设计。</t>
   </si>
   <si>
-    <t>https://img.vim-cn.com/19/8e0171b8c34701895be54b60989c57007e692f.png</t>
+    <t>https://img.vim-cn.com/b9/ff7a4ca2bb15673d1d8ad19463ca53674034cb.png</t>
   </si>
   <si>
     <t>https://vote.ilingyue.cn/media/11.pdf</t>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>花式纱线毛针织服装的一系列设计</t>
+  </si>
+  <si>
+    <t>https://img.vim-cn.com/e0/9e2975604939c58b4c9cb19124d9a0716a9ac2.png</t>
+  </si>
+  <si>
+    <t>https://vote.ilingyue.cn/media/29.pdf</t>
   </si>
   <si>
     <t>江湖少年</t>
@@ -1316,8 +1322,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1770,7 +1776,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>29</v>
       </c>
@@ -1781,7 +1787,10 @@
         <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1789,16 +1798,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1806,16 +1815,16 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1823,13 +1832,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1837,16 +1846,16 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1854,16 +1863,16 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1907,6 +1916,8 @@
     <hyperlink ref="E21" r:id="rId37" display="https://vote.ilingyue.cn/media/23.pdf" tooltip="https://vote.ilingyue.cn/media/23.pdf"/>
     <hyperlink ref="E19" r:id="rId38" display="https://vote.ilingyue.cn/media/20.pdf" tooltip="https://vote.ilingyue.cn/media/20.pdf"/>
     <hyperlink ref="E11" r:id="rId39" display="https://vote.ilingyue.cn/media/11.pdf" tooltip="https://vote.ilingyue.cn/media/11.pdf"/>
+    <hyperlink ref="E27" r:id="rId40" display="https://vote.ilingyue.cn/media/29.pdf" tooltip="https://vote.ilingyue.cn/media/29.pdf"/>
+    <hyperlink ref="D27" r:id="rId41" display="https://img.vim-cn.com/e0/9e2975604939c58b4c9cb19124d9a0716a9ac2.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
